--- a/Tests/Validation/Wheat/data/FAR WAE W21-05.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAE W21-05.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -716,7 +717,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -749,7 +750,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -782,7 +783,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -823,7 +824,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -876,7 +877,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -909,7 +910,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -942,7 +943,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -975,7 +976,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1008,7 +1009,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1041,7 +1042,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1074,7 +1075,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1107,7 +1108,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1148,7 +1149,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1201,7 +1202,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1234,7 +1235,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1267,7 +1268,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1300,7 +1301,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1333,7 +1334,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1366,7 +1367,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1399,7 +1400,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1432,7 +1433,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1473,7 +1474,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -1526,7 +1527,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1559,7 +1560,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1592,7 +1593,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1625,7 +1626,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1658,7 +1659,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1691,7 +1692,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1724,7 +1725,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1757,7 +1758,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1798,7 +1799,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1851,7 +1852,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1884,7 +1885,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1917,7 +1918,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1950,7 +1951,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1983,7 +1984,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2016,7 +2017,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2049,7 +2050,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2082,7 +2083,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2123,7 +2124,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -2176,7 +2177,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2209,7 +2210,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2242,7 +2243,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2275,7 +2276,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2308,7 +2309,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2341,7 +2342,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2374,7 +2375,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2407,7 +2408,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2448,7 +2449,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2501,7 +2502,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2534,7 +2535,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2567,7 +2568,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2600,7 +2601,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2633,7 +2634,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2666,7 +2667,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2699,7 +2700,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2732,7 +2733,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -2773,7 +2774,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2826,7 +2827,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2859,7 +2860,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2892,7 +2893,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2925,7 +2926,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2958,7 +2959,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2991,7 +2992,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3024,7 +3025,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3057,7 +3058,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3098,7 +3099,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3151,7 +3152,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3184,7 +3185,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3217,7 +3218,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3250,7 +3251,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3283,7 +3284,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3316,7 +3317,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3349,7 +3350,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3382,7 +3383,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -3423,7 +3424,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -3476,7 +3477,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3509,7 +3510,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3542,7 +3543,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3575,7 +3576,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3608,7 +3609,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3641,7 +3642,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3674,7 +3675,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3707,7 +3708,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3748,7 +3749,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C91" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR WAE W21-05.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAE W21-05.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -552,7 +551,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>44326</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -585,7 +584,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>44385</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -618,7 +617,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>44397</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -651,7 +650,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>44403</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -684,7 +683,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>44484</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -717,7 +716,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>44498</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -750,7 +749,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -783,7 +782,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -824,7 +823,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>44538</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -877,7 +876,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>44326</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -910,7 +909,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>44385</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -943,7 +942,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>44397</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -976,7 +975,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>44403</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1009,7 +1008,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>44484</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1042,7 +1041,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>44498</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1075,7 +1074,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1108,7 +1107,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1149,7 +1148,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>44538</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1202,7 +1201,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>44326</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1235,7 +1234,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>44385</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1268,7 +1267,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>44397</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1301,7 +1300,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>44403</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1334,7 +1333,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>44484</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1367,7 +1366,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>44498</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1400,7 +1399,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1433,7 +1432,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1474,7 +1473,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>44538</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -1527,7 +1526,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>44326</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1560,7 +1559,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>44385</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1593,7 +1592,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>44397</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1626,7 +1625,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>44403</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1659,7 +1658,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>44484</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1692,7 +1691,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>44498</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1725,7 +1724,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1758,7 +1757,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1799,7 +1798,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>44538</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1852,7 +1851,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>44326</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1885,7 +1884,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>44385</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1918,7 +1917,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>44397</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1951,7 +1950,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>44403</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1984,7 +1983,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>44484</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2017,7 +2016,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>44498</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2050,7 +2049,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2083,7 +2082,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2124,7 +2123,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>44538</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -2177,7 +2176,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>44326</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2210,7 +2209,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>44385</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2243,7 +2242,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>44397</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2276,7 +2275,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>44403</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2309,7 +2308,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>44484</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2342,7 +2341,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>44498</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2375,7 +2374,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2408,7 +2407,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2449,7 +2448,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>44538</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2502,7 +2501,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>44326</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2535,7 +2534,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>44385</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2568,7 +2567,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>44397</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2601,7 +2600,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>44403</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2634,7 +2633,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>44484</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2667,7 +2666,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>44498</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2700,7 +2699,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2733,7 +2732,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -2774,7 +2773,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>44538</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2827,7 +2826,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>44326</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2860,7 +2859,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>44385</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2893,7 +2892,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>44397</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2926,7 +2925,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>44403</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2959,7 +2958,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>44484</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2992,7 +2991,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>44498</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3025,7 +3024,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3058,7 +3057,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3099,7 +3098,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>44538</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3152,7 +3151,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>44326</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3185,7 +3184,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>44385</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3218,7 +3217,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>44397</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3251,7 +3250,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>44403</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3284,7 +3283,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>44484</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3317,7 +3316,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>44498</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3350,7 +3349,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3383,7 +3382,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -3424,7 +3423,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>44538</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -3477,7 +3476,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>44326</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3510,7 +3509,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>44385</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3543,7 +3542,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>44397</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3576,7 +3575,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>44403</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3609,7 +3608,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>44484</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3642,7 +3641,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>44498</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3675,7 +3674,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3708,7 +3707,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3749,7 +3748,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>44538</v>
       </c>
       <c r="C91" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR WAE W21-05.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAE W21-05.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -716,7 +717,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -749,7 +750,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -782,7 +783,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -823,7 +824,7 @@
           <t>FAR WAE W21-05CvTrojan</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -876,7 +877,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -909,7 +910,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -942,7 +943,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -975,7 +976,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1008,7 +1009,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1041,7 +1042,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1074,7 +1075,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1107,7 +1108,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1148,7 +1149,7 @@
           <t>FAR WAE W21-05CvMagenta</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1201,7 +1202,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1234,7 +1235,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1267,7 +1268,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1300,7 +1301,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1333,7 +1334,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1366,7 +1367,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1399,7 +1400,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1432,7 +1433,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1473,7 +1474,7 @@
           <t>FAR WAE W21-05CvCatapult</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -1526,7 +1527,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1559,7 +1560,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1592,7 +1593,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1625,7 +1626,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1658,7 +1659,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1691,7 +1692,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1724,7 +1725,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1757,7 +1758,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1798,7 +1799,7 @@
           <t>FAR WAE W21-05CvBennett</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1851,7 +1852,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1884,7 +1885,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1917,7 +1918,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1950,7 +1951,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1983,7 +1984,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2016,7 +2017,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2049,7 +2050,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2082,7 +2083,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2123,7 +2124,7 @@
           <t>FAR WAE W21-05CvValiant CL</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -2176,7 +2177,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2209,7 +2210,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2242,7 +2243,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2275,7 +2276,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2308,7 +2309,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2341,7 +2342,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2374,7 +2375,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2407,7 +2408,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2448,7 +2449,7 @@
           <t>FAR WAE W21-05CvRockstar</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2501,7 +2502,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2534,7 +2535,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2567,7 +2568,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2600,7 +2601,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2633,7 +2634,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2666,7 +2667,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2699,7 +2700,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2732,7 +2733,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -2773,7 +2774,7 @@
           <t>FAR WAE W21-05CvAnapurna</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2826,7 +2827,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2859,7 +2860,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2892,7 +2893,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2925,7 +2926,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2958,7 +2959,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2991,7 +2992,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3024,7 +3025,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3057,7 +3058,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3098,7 +3099,7 @@
           <t>FAR WAE W21-05CvScepter</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3151,7 +3152,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3184,7 +3185,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3217,7 +3218,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3250,7 +3251,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3283,7 +3284,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3316,7 +3317,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3349,7 +3350,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3382,7 +3383,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -3423,7 +3424,7 @@
           <t>FAR WAE W21-05CvIllabo</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -3476,7 +3477,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3509,7 +3510,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3542,7 +3543,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3575,7 +3576,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3608,7 +3609,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44484</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3641,7 +3642,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44498</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3674,7 +3675,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44502</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3707,7 +3708,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44531</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3748,7 +3749,7 @@
           <t>FAR WAE W21-05CvDenison</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44538</v>
       </c>
       <c r="C91" t="inlineStr">
